--- a/biology/Botanique/Heliconiaceae/Heliconiaceae.xlsx
+++ b/biology/Botanique/Heliconiaceae/Heliconiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Heliconiaceae (Héliconiacées) regroupe des plantes monocotylédones. Elle comprend environ 80-200 espèces du genre Heliconia.
 Ce sont des plantes herbacées vivaces des régions tropicales. Pour certaines espèces, la pollinisation est assurée par les oiseaux-mouches.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Heliconia qui dérive du grec Ἑλικών / Helikṓn littéralement « la montagne tortueuse », en référence au mont Hélicon massif montagneux de Béotie, en Grèce, culminant à 1 748 mètres, nom qui a pour racine grecque ἕλιξ / hélix, « spirale, zigzag », en référence à la forme des inflorescences de cette plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Heliconia qui dérive du grec Ἑλικών / Helikṓn littéralement « la montagne tortueuse », en référence au mont Hélicon massif montagneux de Béotie, en Grèce, culminant à 1 748 mètres, nom qui a pour racine grecque ἕλιξ / hélix, « spirale, zigzag », en référence à la forme des inflorescences de cette plante.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,9 +586,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[2], Angiosperm Phylogeny Website                        (21 mai 2010)[3], NCBI  (22 avr. 2010)[4], DELTA Angio           (22 avr. 2010)[5] &amp; ITIS      (22 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010), NCBI  (22 avr. 2010), DELTA Angio           (22 avr. 2010) &amp; ITIS      (22 avr. 2010) :
 genre Heliconia  L. (1771)</t>
         </is>
       </c>
@@ -601,11 +619,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 mars 2012)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 mars 2012) :
 voir l'article genre Heliconia  L. (1771)
-Selon NCBI  (22 avr. 2010)[4] :
+Selon NCBI  (22 avr. 2010) :
 genre Heliconia
 Heliconia acuminata
 Heliconia bihai
